--- a/data/trans_orig/P1438_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C388BB6-117D-4765-BF34-7DAEF52A6316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04ED95EE-A386-41EC-BF14-8FDC43938E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EBECDD54-7364-41E3-8D7F-485D5D1D10B6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6F3ABDCE-D32E-43B4-95DC-BBDE1E1B42A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,25 @@
     <t>6,94%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
+    <t>13,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +101,25 @@
     <t>93,06%</t>
   </si>
   <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
   </si>
   <si>
     <t>88,25%</t>
   </si>
   <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
   </si>
   <si>
     <t>90,36%</t>
   </si>
   <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
+    <t>86,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +131,55 @@
     <t>7,31%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
   </si>
   <si>
     <t>92,69%</t>
   </si>
   <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>89,21%</t>
   </si>
   <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
   </si>
   <si>
     <t>90,88%</t>
   </si>
   <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -194,49 +188,55 @@
     <t>4,43%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>10,0%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>95,57%</t>
   </si>
   <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>91,46%</t>
   </si>
   <si>
-    <t>90,0%</t>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>93,49%</t>
   </si>
   <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -245,55 +245,55 @@
     <t>3,36%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
   </si>
   <si>
     <t>96,64%</t>
   </si>
   <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
   <si>
     <t>94,85%</t>
   </si>
   <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -302,70 +302,67 @@
     <t>4,41%</t>
   </si>
   <si>
-    <t>5,83%</t>
+    <t>3,28%</t>
   </si>
   <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
+    <t>9,3%</t>
   </si>
   <si>
     <t>6,21%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>95,59%</t>
   </si>
   <si>
-    <t>94,17%</t>
+    <t>96,72%</t>
   </si>
   <si>
     <t>92,28%</t>
   </si>
   <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
+    <t>90,7%</t>
   </si>
   <si>
     <t>93,79%</t>
   </si>
   <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>7,47%</t>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>6,15%</t>
+    <t>6,07%</t>
   </si>
   <si>
     <t>7,2%</t>
@@ -374,16 +371,19 @@
     <t>95,26%</t>
   </si>
   <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>92,53%</t>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
   </si>
   <si>
     <t>93,37%</t>
@@ -392,7 +392,7 @@
     <t>92,8%</t>
   </si>
   <si>
-    <t>93,85%</t>
+    <t>93,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -807,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718F9CBC-A820-42E8-9F09-58FB489C68DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C14094-6808-41BF-A336-943417862EF5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -964,16 +964,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>110</v>
@@ -982,13 +982,13 @@
         <v>94908</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>208</v>
@@ -997,13 +997,13 @@
         <v>115373</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>318</v>
@@ -1012,13 +1012,13 @@
         <v>210282</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1033,13 +1033,13 @@
         <v>101982</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>243</v>
@@ -1048,13 +1048,13 @@
         <v>130733</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>361</v>
@@ -1063,18 +1063,18 @@
         <v>232715</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1086,13 +1086,13 @@
         <v>40168</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>140</v>
@@ -1101,13 +1101,13 @@
         <v>63965</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>200</v>
@@ -1116,19 +1116,19 @@
         <v>104134</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>552</v>
@@ -1137,13 +1137,13 @@
         <v>509655</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>855</v>
@@ -1152,13 +1152,13 @@
         <v>528590</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1407</v>
@@ -1167,13 +1167,13 @@
         <v>1038244</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1188,13 +1188,13 @@
         <v>549823</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>995</v>
@@ -1203,13 +1203,13 @@
         <v>592555</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>1607</v>
@@ -1218,18 +1218,18 @@
         <v>1142378</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1241,13 +1241,13 @@
         <v>46087</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>156</v>
@@ -1256,13 +1256,13 @@
         <v>90390</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>217</v>
@@ -1271,19 +1271,19 @@
         <v>136477</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>903</v>
@@ -1292,13 +1292,13 @@
         <v>993161</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>1359</v>
@@ -1307,13 +1307,13 @@
         <v>968366</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M11" s="7">
         <v>2262</v>
@@ -1343,13 +1343,13 @@
         <v>1039248</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>1515</v>
@@ -1358,13 +1358,13 @@
         <v>1058756</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>2479</v>
@@ -1373,13 +1373,13 @@
         <v>2098004</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1438,7 +1438,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>647</v>
@@ -1498,13 +1498,13 @@
         <v>725099</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>1045</v>
@@ -1513,13 +1513,13 @@
         <v>874052</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>1717</v>
@@ -1528,13 +1528,13 @@
         <v>1599151</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,10 +1554,10 @@
         <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="H16" s="7">
         <v>142</v>
@@ -1569,10 +1569,10 @@
         <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>196</v>
@@ -1581,19 +1581,19 @@
         <v>131220</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
         <v>952</v>
@@ -1602,13 +1602,13 @@
         <v>922783</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H17" s="7">
         <v>1418</v>
@@ -1617,13 +1617,13 @@
         <v>1058344</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>2370</v>
@@ -1632,13 +1632,13 @@
         <v>1981127</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,13 +1653,13 @@
         <v>965403</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>1560</v>
@@ -1668,13 +1668,13 @@
         <v>1146944</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>2566</v>
@@ -1683,13 +1683,13 @@
         <v>2112347</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,13 +1706,13 @@
         <v>160327</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>563</v>
@@ -1721,13 +1721,13 @@
         <v>316220</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M19" s="7">
         <v>771</v>
@@ -1736,19 +1736,19 @@
         <v>476547</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="7">
         <v>3164</v>
@@ -1757,13 +1757,13 @@
         <v>3221228</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>4795</v>
@@ -1772,10 +1772,10 @@
         <v>3486820</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>115</v>
@@ -1808,13 +1808,13 @@
         <v>3381555</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>5358</v>
@@ -1823,13 +1823,13 @@
         <v>3803040</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>8730</v>
@@ -1838,13 +1838,13 @@
         <v>7184596</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1438_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04ED95EE-A386-41EC-BF14-8FDC43938E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0F7FD72-EAB5-4DF8-8150-9DC4CEC8B2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6F3ABDCE-D32E-43B4-95DC-BBDE1E1B42A1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B701F8AF-664E-4B52-96B7-009379552B7E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -125,7 +125,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>7,31%</t>
@@ -182,7 +182,7 @@
     <t>92,08%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>4,43%</t>
@@ -239,7 +239,7 @@
     <t>94,39%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>3,36%</t>
@@ -807,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C14094-6808-41BF-A336-943417862EF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E8C96A-2E34-4E4F-A843-091116280F76}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P1438_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0F7FD72-EAB5-4DF8-8150-9DC4CEC8B2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{739EB590-EBE1-4841-AD9A-E5A8E2152A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B701F8AF-664E-4B52-96B7-009379552B7E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F581214-1C11-4B92-A6C0-63974F998FC2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,25 +74,28 @@
     <t>6,94%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>11,75%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>13,17%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,25 +104,28 @@
     <t>93,06%</t>
   </si>
   <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>88,25%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
   </si>
   <si>
     <t>90,36%</t>
   </si>
   <si>
-    <t>86,83%</t>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,55 +137,55 @@
     <t>7,31%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>9,12%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
   </si>
   <si>
     <t>92,69%</t>
   </si>
   <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>89,21%</t>
   </si>
   <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>90,88%</t>
   </si>
   <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -188,55 +194,49 @@
     <t>4,43%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
+    <t>10,0%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
   </si>
   <si>
     <t>95,57%</t>
   </si>
   <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
   </si>
   <si>
     <t>91,46%</t>
   </si>
   <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>90,0%</t>
   </si>
   <si>
     <t>93,49%</t>
   </si>
   <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -245,55 +245,55 @@
     <t>3,36%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
   </si>
   <si>
     <t>96,64%</t>
   </si>
   <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>94,85%</t>
   </si>
   <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -302,67 +302,70 @@
     <t>4,41%</t>
   </si>
   <si>
-    <t>3,28%</t>
+    <t>5,83%</t>
   </si>
   <si>
     <t>7,72%</t>
   </si>
   <si>
-    <t>9,3%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
   </si>
   <si>
     <t>6,21%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
   </si>
   <si>
     <t>95,59%</t>
   </si>
   <si>
-    <t>96,72%</t>
+    <t>94,17%</t>
   </si>
   <si>
     <t>92,28%</t>
   </si>
   <si>
-    <t>90,7%</t>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
   </si>
   <si>
     <t>93,79%</t>
   </si>
   <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
+    <t>7,47%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>6,07%</t>
+    <t>6,15%</t>
   </si>
   <si>
     <t>7,2%</t>
@@ -371,19 +374,16 @@
     <t>95,26%</t>
   </si>
   <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>92,53%</t>
   </si>
   <si>
     <t>93,37%</t>
@@ -392,7 +392,7 @@
     <t>92,8%</t>
   </si>
   <si>
-    <t>93,93%</t>
+    <t>93,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -807,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E8C96A-2E34-4E4F-A843-091116280F76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F48EF8-9F8E-418D-BE28-874828B6ABD0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -964,16 +964,16 @@
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>110</v>
@@ -982,13 +982,13 @@
         <v>94908</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>208</v>
@@ -997,13 +997,13 @@
         <v>115373</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>318</v>
@@ -1012,13 +1012,13 @@
         <v>210282</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1033,13 +1033,13 @@
         <v>101982</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>243</v>
@@ -1048,13 +1048,13 @@
         <v>130733</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>361</v>
@@ -1063,18 +1063,18 @@
         <v>232715</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1086,13 +1086,13 @@
         <v>40168</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>140</v>
@@ -1101,13 +1101,13 @@
         <v>63965</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>200</v>
@@ -1116,19 +1116,19 @@
         <v>104134</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>552</v>
@@ -1137,13 +1137,13 @@
         <v>509655</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>855</v>
@@ -1152,13 +1152,13 @@
         <v>528590</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1407</v>
@@ -1167,13 +1167,13 @@
         <v>1038244</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1188,13 +1188,13 @@
         <v>549823</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>995</v>
@@ -1203,13 +1203,13 @@
         <v>592555</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1607</v>
@@ -1218,18 +1218,18 @@
         <v>1142378</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1241,13 +1241,13 @@
         <v>46087</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>156</v>
@@ -1256,13 +1256,13 @@
         <v>90390</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>217</v>
@@ -1271,19 +1271,19 @@
         <v>136477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>903</v>
@@ -1292,13 +1292,13 @@
         <v>993161</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>1359</v>
@@ -1307,13 +1307,13 @@
         <v>968366</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
         <v>2262</v>
@@ -1343,13 +1343,13 @@
         <v>1039248</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>1515</v>
@@ -1358,13 +1358,13 @@
         <v>1058756</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>2479</v>
@@ -1373,13 +1373,13 @@
         <v>2098004</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1438,7 +1438,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>647</v>
@@ -1498,13 +1498,13 @@
         <v>725099</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>1045</v>
@@ -1513,13 +1513,13 @@
         <v>874052</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>1717</v>
@@ -1528,13 +1528,13 @@
         <v>1599151</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,10 +1554,10 @@
         <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="H16" s="7">
         <v>142</v>
@@ -1569,10 +1569,10 @@
         <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>196</v>
@@ -1581,19 +1581,19 @@
         <v>131220</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>952</v>
@@ -1602,13 +1602,13 @@
         <v>922783</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
         <v>1418</v>
@@ -1617,13 +1617,13 @@
         <v>1058344</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>2370</v>
@@ -1632,13 +1632,13 @@
         <v>1981127</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,13 +1653,13 @@
         <v>965403</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>1560</v>
@@ -1668,13 +1668,13 @@
         <v>1146944</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>2566</v>
@@ -1683,13 +1683,13 @@
         <v>2112347</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,13 +1706,13 @@
         <v>160327</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>563</v>
@@ -1721,13 +1721,13 @@
         <v>316220</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
         <v>771</v>
@@ -1736,19 +1736,19 @@
         <v>476547</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>3164</v>
@@ -1757,13 +1757,13 @@
         <v>3221228</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>4795</v>
@@ -1772,10 +1772,10 @@
         <v>3486820</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>115</v>
@@ -1808,13 +1808,13 @@
         <v>3381555</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>5358</v>
@@ -1823,13 +1823,13 @@
         <v>3803040</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>8730</v>
@@ -1838,13 +1838,13 @@
         <v>7184596</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1438_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1438_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{739EB590-EBE1-4841-AD9A-E5A8E2152A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A97561EA-BAE1-4B3D-8078-166CE17321F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F581214-1C11-4B92-A6C0-63974F998FC2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1D8FC68A-266F-4CF5-B06F-E94110B8391F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Población con diagnóstico de otro dolor crónico en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -65,334 +65,289 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
+    <t>10,48%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>91,94%</t>
   </si>
   <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
     <t>93,79%</t>
   </si>
   <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -807,8 +762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F48EF8-9F8E-418D-BE28-874828B6ABD0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F4C82A-2864-4C6F-AB22-46220F4EBED9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -925,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="D4" s="7">
-        <v>7074</v>
+        <v>45151</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -940,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="I4" s="7">
-        <v>15360</v>
+        <v>74310</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -955,10 +910,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="N4" s="7">
-        <v>22433</v>
+        <v>119462</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -976,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>110</v>
+        <v>662</v>
       </c>
       <c r="D5" s="7">
-        <v>94908</v>
+        <v>590290</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -991,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>208</v>
+        <v>1063</v>
       </c>
       <c r="I5" s="7">
-        <v>115373</v>
+        <v>601060</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1006,10 +961,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>318</v>
+        <v>1725</v>
       </c>
       <c r="N5" s="7">
-        <v>210282</v>
+        <v>1191349</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1027,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1042,10 +997,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1057,10 +1012,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1968</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310811</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1080,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7" s="7">
-        <v>40168</v>
+        <v>44342</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1095,10 +1050,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="I7" s="7">
-        <v>63965</v>
+        <v>82863</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1110,10 +1065,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="N7" s="7">
-        <v>104134</v>
+        <v>127205</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1131,10 +1086,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>552</v>
+        <v>903</v>
       </c>
       <c r="D8" s="7">
-        <v>509655</v>
+        <v>1148522</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1146,10 +1101,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>855</v>
+        <v>1359</v>
       </c>
       <c r="I8" s="7">
-        <v>528590</v>
+        <v>874574</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1161,10 +1116,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1407</v>
+        <v>2262</v>
       </c>
       <c r="N8" s="7">
-        <v>1038244</v>
+        <v>2023096</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1182,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1197,10 +1152,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>957437</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1212,10 +1167,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2479</v>
       </c>
       <c r="N9" s="7">
-        <v>1142378</v>
+        <v>2150301</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1235,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>46087</v>
+        <v>23097</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1250,34 +1205,34 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="I10" s="7">
-        <v>90390</v>
+        <v>52714</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="N10" s="7">
-        <v>136477</v>
+        <v>75811</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1286,49 +1241,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>903</v>
+        <v>647</v>
       </c>
       <c r="D11" s="7">
-        <v>993161</v>
+        <v>678188</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1359</v>
+        <v>955</v>
       </c>
       <c r="I11" s="7">
-        <v>968366</v>
+        <v>880333</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>2262</v>
+        <v>1602</v>
       </c>
       <c r="N11" s="7">
-        <v>1961527</v>
+        <v>1558521</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1337,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>672</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>701285</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1352,10 +1307,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>1045</v>
       </c>
       <c r="I12" s="7">
-        <v>1058756</v>
+        <v>933047</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1367,10 +1322,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2479</v>
+        <v>1717</v>
       </c>
       <c r="N12" s="7">
-        <v>2098004</v>
+        <v>1634332</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1384,55 +1339,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>24378</v>
+        <v>40137</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="I13" s="7">
-        <v>57906</v>
+        <v>79453</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="N13" s="7">
-        <v>82284</v>
+        <v>119590</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1441,43 +1396,43 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>647</v>
+        <v>952</v>
       </c>
       <c r="D14" s="7">
-        <v>700721</v>
+        <v>886694</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>955</v>
+        <v>1418</v>
       </c>
       <c r="I14" s="7">
-        <v>816146</v>
+        <v>1012461</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>1602</v>
+        <v>2370</v>
       </c>
       <c r="N14" s="7">
-        <v>1516867</v>
+        <v>1899155</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>84</v>
@@ -1492,10 +1447,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>672</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>725099</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1507,10 +1462,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1045</v>
+        <v>1560</v>
       </c>
       <c r="I15" s="7">
-        <v>874052</v>
+        <v>1091914</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1522,10 +1477,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1717</v>
+        <v>2566</v>
       </c>
       <c r="N15" s="7">
-        <v>1599151</v>
+        <v>2018745</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1539,31 +1494,31 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="D16" s="7">
-        <v>42620</v>
+        <v>152728</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>142</v>
+        <v>563</v>
       </c>
       <c r="I16" s="7">
-        <v>88600</v>
+        <v>289340</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>89</v>
@@ -1575,10 +1530,10 @@
         <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>196</v>
+        <v>771</v>
       </c>
       <c r="N16" s="7">
-        <v>131220</v>
+        <v>442068</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>92</v>
@@ -1596,10 +1551,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>952</v>
+        <v>3164</v>
       </c>
       <c r="D17" s="7">
-        <v>922783</v>
+        <v>3303694</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>95</v>
@@ -1608,37 +1563,37 @@
         <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>1418</v>
+        <v>4795</v>
       </c>
       <c r="I17" s="7">
-        <v>1058344</v>
+        <v>3368428</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>2370</v>
+        <v>7959</v>
       </c>
       <c r="N17" s="7">
-        <v>1981127</v>
+        <v>6672122</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3372</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3456422</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1662,10 +1617,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1560</v>
+        <v>5358</v>
       </c>
       <c r="I18" s="7">
-        <v>1146944</v>
+        <v>3657768</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1677,10 +1632,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2566</v>
+        <v>8730</v>
       </c>
       <c r="N18" s="7">
-        <v>2112347</v>
+        <v>7114190</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1693,171 +1648,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>208</v>
-      </c>
-      <c r="D19" s="7">
-        <v>160327</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>563</v>
-      </c>
-      <c r="I19" s="7">
-        <v>316220</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" s="7">
-        <v>771</v>
-      </c>
-      <c r="N19" s="7">
-        <v>476547</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3164</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3221228</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4795</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3486820</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7959</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6708049</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3372</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3381555</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5358</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3803040</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8730</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7184596</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
